--- a/lsj7087/07step_str/CheckListForm_7step.xlsx
+++ b/lsj7087/07step_str/CheckListForm_7step.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/알고리즘 스터디/작업용/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://dongguk0-my.sharepoint.com/personal/lsj7087_dongguk_edu/Documents/바탕 화면/활동/알고리즘 스터디/작업용/07step_str/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{18D35799-5F31-46CB-B93E-FADE9DAE0253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{361FC263-E76B-4898-A284-12A600C41F9B}"/>
+  <xr:revisionPtr revIDLastSave="42" documentId="8_{18D35799-5F31-46CB-B93E-FADE9DAE0253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8F759BFB-D78A-4CC5-AE75-AF7B4E5D6F09}"/>
   <bookViews>
-    <workbookView xWindow="6540" yWindow="2660" windowWidth="21600" windowHeight="12760" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
+    <workbookView xWindow="28690" yWindow="-110" windowWidth="24100" windowHeight="16300" xr2:uid="{2683A084-5E1C-45DB-8DAE-141C5F5642CD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -156,9 +156,6 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="176" formatCode="m&quot;월&quot;\ d&quot;일&quot;"/>
-  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -641,9 +638,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,6 +645,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1039,8 +1036,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7EA290B9-D938-4FB9-A2F0-C9496544FB19}">
   <dimension ref="B1:F122"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114:F114"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D59" sqref="D59:F59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -1085,7 +1082,9 @@
       <c r="E4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11"/>
+      <c r="F4" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="5" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B5" s="27" t="s">
@@ -1115,7 +1114,7 @@
       <c r="B7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="14"/>
+      <c r="C7" s="13"/>
       <c r="D7" s="18" t="s">
         <v>8</v>
       </c>
@@ -1151,7 +1150,7 @@
     </row>
     <row r="11" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B11" s="17"/>
-      <c r="C11" s="12"/>
+      <c r="C11" s="11"/>
       <c r="D11" s="24" t="s">
         <v>12</v>
       </c>
@@ -1171,7 +1170,7 @@
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B13" s="16"/>
-      <c r="C13" s="13"/>
+      <c r="C13" s="12"/>
       <c r="D13" s="21" t="s">
         <v>14</v>
       </c>
@@ -1180,7 +1179,7 @@
     </row>
     <row r="14" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B14" s="17"/>
-      <c r="C14" s="12"/>
+      <c r="C14" s="11"/>
       <c r="D14" s="24" t="s">
         <v>15</v>
       </c>
@@ -1199,7 +1198,9 @@
       <c r="E16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="F16" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="17" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B17" s="27" t="s">
@@ -1229,7 +1230,7 @@
       <c r="B19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C19" s="14"/>
+      <c r="C19" s="13"/>
       <c r="D19" s="18" t="s">
         <v>8</v>
       </c>
@@ -1265,7 +1266,7 @@
     </row>
     <row r="23" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B23" s="17"/>
-      <c r="C23" s="12"/>
+      <c r="C23" s="11"/>
       <c r="D23" s="24" t="s">
         <v>12</v>
       </c>
@@ -1285,7 +1286,7 @@
     </row>
     <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25" s="16"/>
-      <c r="C25" s="13"/>
+      <c r="C25" s="12"/>
       <c r="D25" s="21" t="s">
         <v>14</v>
       </c>
@@ -1294,7 +1295,7 @@
     </row>
     <row r="26" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B26" s="17"/>
-      <c r="C26" s="12"/>
+      <c r="C26" s="11"/>
       <c r="D26" s="24" t="s">
         <v>15</v>
       </c>
@@ -1313,7 +1314,9 @@
       <c r="E28" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F28" s="11"/>
+      <c r="F28" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="29" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B29" s="27" t="s">
@@ -1343,7 +1346,7 @@
       <c r="B31" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C31" s="14"/>
+      <c r="C31" s="13"/>
       <c r="D31" s="18" t="s">
         <v>8</v>
       </c>
@@ -1379,7 +1382,7 @@
     </row>
     <row r="35" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B35" s="17"/>
-      <c r="C35" s="12"/>
+      <c r="C35" s="11"/>
       <c r="D35" s="24" t="s">
         <v>12</v>
       </c>
@@ -1399,7 +1402,7 @@
     </row>
     <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37" s="16"/>
-      <c r="C37" s="13"/>
+      <c r="C37" s="12"/>
       <c r="D37" s="21" t="s">
         <v>14</v>
       </c>
@@ -1408,7 +1411,7 @@
     </row>
     <row r="38" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B38" s="17"/>
-      <c r="C38" s="12"/>
+      <c r="C38" s="11"/>
       <c r="D38" s="24" t="s">
         <v>15</v>
       </c>
@@ -1427,7 +1430,9 @@
       <c r="E40" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F40" s="11"/>
+      <c r="F40" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="41" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B41" s="27" t="s">
@@ -1457,7 +1462,7 @@
       <c r="B43" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C43" s="14"/>
+      <c r="C43" s="13"/>
       <c r="D43" s="18" t="s">
         <v>8</v>
       </c>
@@ -1493,7 +1498,7 @@
     </row>
     <row r="47" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B47" s="17"/>
-      <c r="C47" s="12"/>
+      <c r="C47" s="11"/>
       <c r="D47" s="24" t="s">
         <v>12</v>
       </c>
@@ -1513,7 +1518,7 @@
     </row>
     <row r="49" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B49" s="16"/>
-      <c r="C49" s="13"/>
+      <c r="C49" s="12"/>
       <c r="D49" s="21" t="s">
         <v>14</v>
       </c>
@@ -1522,7 +1527,7 @@
     </row>
     <row r="50" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B50" s="17"/>
-      <c r="C50" s="12"/>
+      <c r="C50" s="11"/>
       <c r="D50" s="24" t="s">
         <v>15</v>
       </c>
@@ -1541,7 +1546,9 @@
       <c r="E52" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="11"/>
+      <c r="F52" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="53" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B53" s="27" t="s">
@@ -1571,7 +1578,7 @@
       <c r="B55" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C55" s="14"/>
+      <c r="C55" s="13"/>
       <c r="D55" s="18" t="s">
         <v>8</v>
       </c>
@@ -1598,7 +1605,6 @@
     </row>
     <row r="58" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B58" s="16"/>
-      <c r="C58" s="4"/>
       <c r="D58" s="21" t="s">
         <v>11</v>
       </c>
@@ -1607,7 +1613,7 @@
     </row>
     <row r="59" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B59" s="17"/>
-      <c r="C59" s="12"/>
+      <c r="C59" s="11"/>
       <c r="D59" s="24" t="s">
         <v>12</v>
       </c>
@@ -1627,7 +1633,7 @@
     </row>
     <row r="61" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B61" s="16"/>
-      <c r="C61" s="13"/>
+      <c r="C61" s="12"/>
       <c r="D61" s="21" t="s">
         <v>14</v>
       </c>
@@ -1636,7 +1642,7 @@
     </row>
     <row r="62" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B62" s="17"/>
-      <c r="C62" s="12"/>
+      <c r="C62" s="11"/>
       <c r="D62" s="24" t="s">
         <v>15</v>
       </c>
@@ -1655,7 +1661,9 @@
       <c r="E64" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F64" s="11"/>
+      <c r="F64" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="65" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B65" s="27" t="s">
@@ -1685,7 +1693,7 @@
       <c r="B67" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C67" s="14"/>
+      <c r="C67" s="13"/>
       <c r="D67" s="18" t="s">
         <v>8</v>
       </c>
@@ -1721,7 +1729,7 @@
     </row>
     <row r="71" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B71" s="17"/>
-      <c r="C71" s="12"/>
+      <c r="C71" s="11"/>
       <c r="D71" s="24" t="s">
         <v>12</v>
       </c>
@@ -1741,7 +1749,7 @@
     </row>
     <row r="73" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B73" s="16"/>
-      <c r="C73" s="13"/>
+      <c r="C73" s="12"/>
       <c r="D73" s="21" t="s">
         <v>14</v>
       </c>
@@ -1750,7 +1758,7 @@
     </row>
     <row r="74" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B74" s="17"/>
-      <c r="C74" s="12"/>
+      <c r="C74" s="11"/>
       <c r="D74" s="24" t="s">
         <v>15</v>
       </c>
@@ -1769,7 +1777,9 @@
       <c r="E76" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F76" s="11"/>
+      <c r="F76" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="77" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B77" s="27" t="s">
@@ -1799,7 +1809,7 @@
       <c r="B79" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C79" s="14"/>
+      <c r="C79" s="13"/>
       <c r="D79" s="18" t="s">
         <v>8</v>
       </c>
@@ -1835,7 +1845,7 @@
     </row>
     <row r="83" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B83" s="17"/>
-      <c r="C83" s="12"/>
+      <c r="C83" s="11"/>
       <c r="D83" s="24" t="s">
         <v>12</v>
       </c>
@@ -1855,7 +1865,7 @@
     </row>
     <row r="85" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B85" s="16"/>
-      <c r="C85" s="13"/>
+      <c r="C85" s="12"/>
       <c r="D85" s="21" t="s">
         <v>14</v>
       </c>
@@ -1864,7 +1874,7 @@
     </row>
     <row r="86" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B86" s="17"/>
-      <c r="C86" s="12"/>
+      <c r="C86" s="11"/>
       <c r="D86" s="24" t="s">
         <v>15</v>
       </c>
@@ -1883,7 +1893,9 @@
       <c r="E88" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F88" s="11"/>
+      <c r="F88" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="89" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B89" s="27" t="s">
@@ -1913,7 +1925,7 @@
       <c r="B91" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C91" s="14"/>
+      <c r="C91" s="13"/>
       <c r="D91" s="18" t="s">
         <v>8</v>
       </c>
@@ -1949,7 +1961,7 @@
     </row>
     <row r="95" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B95" s="17"/>
-      <c r="C95" s="12"/>
+      <c r="C95" s="11"/>
       <c r="D95" s="24" t="s">
         <v>12</v>
       </c>
@@ -1969,7 +1981,7 @@
     </row>
     <row r="97" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B97" s="16"/>
-      <c r="C97" s="13"/>
+      <c r="C97" s="12"/>
       <c r="D97" s="21" t="s">
         <v>14</v>
       </c>
@@ -1978,7 +1990,7 @@
     </row>
     <row r="98" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B98" s="17"/>
-      <c r="C98" s="12"/>
+      <c r="C98" s="11"/>
       <c r="D98" s="24" t="s">
         <v>15</v>
       </c>
@@ -1997,7 +2009,9 @@
       <c r="E100" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F100" s="11"/>
+      <c r="F100" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="101" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B101" s="27" t="s">
@@ -2027,7 +2041,7 @@
       <c r="B103" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C103" s="14"/>
+      <c r="C103" s="13"/>
       <c r="D103" s="18" t="s">
         <v>8</v>
       </c>
@@ -2063,7 +2077,7 @@
     </row>
     <row r="107" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B107" s="17"/>
-      <c r="C107" s="12"/>
+      <c r="C107" s="11"/>
       <c r="D107" s="24" t="s">
         <v>12</v>
       </c>
@@ -2083,7 +2097,7 @@
     </row>
     <row r="109" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B109" s="16"/>
-      <c r="C109" s="13"/>
+      <c r="C109" s="12"/>
       <c r="D109" s="21" t="s">
         <v>14</v>
       </c>
@@ -2092,7 +2106,7 @@
     </row>
     <row r="110" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B110" s="17"/>
-      <c r="C110" s="12"/>
+      <c r="C110" s="11"/>
       <c r="D110" s="24" t="s">
         <v>15</v>
       </c>
@@ -2111,7 +2125,9 @@
       <c r="E112" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F112" s="11"/>
+      <c r="F112" s="14">
+        <v>44468</v>
+      </c>
     </row>
     <row r="113" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B113" s="27" t="s">
@@ -2141,7 +2157,7 @@
       <c r="B115" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="C115" s="14"/>
+      <c r="C115" s="13"/>
       <c r="D115" s="18" t="s">
         <v>8</v>
       </c>
@@ -2177,7 +2193,7 @@
     </row>
     <row r="119" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B119" s="17"/>
-      <c r="C119" s="12"/>
+      <c r="C119" s="11"/>
       <c r="D119" s="24" t="s">
         <v>12</v>
       </c>
@@ -2197,7 +2213,7 @@
     </row>
     <row r="121" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B121" s="16"/>
-      <c r="C121" s="13"/>
+      <c r="C121" s="12"/>
       <c r="D121" s="21" t="s">
         <v>14</v>
       </c>
@@ -2206,7 +2222,7 @@
     </row>
     <row r="122" spans="2:6" ht="17.5" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B122" s="17"/>
-      <c r="C122" s="12"/>
+      <c r="C122" s="11"/>
       <c r="D122" s="24" t="s">
         <v>15</v>
       </c>
